--- a/data.xlsx
+++ b/data.xlsx
@@ -5,44 +5,44 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahbaz\Desktop\ML python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahbaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7845" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve"> route </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driver behaviour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> availability  </t>
-  </si>
-  <si>
-    <t>traffic</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>gender.</t>
+    <t>Select a route where you used ride sharing apps</t>
+  </si>
+  <si>
+    <t>Which service you used?</t>
+  </si>
+  <si>
+    <t>How was the vehicle condition?</t>
+  </si>
+  <si>
+    <t>How was the driver behaviour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How was the availability of your chosen service?  </t>
+  </si>
+  <si>
+    <t>Did the driver maintain traffic rule?</t>
+  </si>
+  <si>
+    <t>How was the experience level  of the driver?</t>
+  </si>
+  <si>
+    <t>Chose driver gender.</t>
   </si>
 </sst>
 </file>
@@ -80,14 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +394,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -411,28 +407,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -643,44 +639,6 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
